--- a/biology/Zoologie/Erebia_vidleri/Erebia_vidleri.xlsx
+++ b/biology/Zoologie/Erebia_vidleri/Erebia_vidleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia vidleri est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Erebia.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebia vidleri nommé par Elwes en 1898 en l'honneur du capitaine Vidler qui avait collecté des spécimens[1].
-Nom vernaculaire
-Il se nomme en anglais Vidler's Alpine[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia vidleri nommé par Elwes en 1898 en l'honneur du capitaine Vidler qui avait collecté des spécimens.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Erebia vidleri est un papillon de taille moyenne, d'une envergure de 35 à 45 mm, marron foncé avec une bande orange contenant trois ocelles noirs sur l'aile antérieure et deux ou trois ocelles noir sur l'aile postérieure.
-Le revers   des ailes antérieures est identique, alors que la bande des ailes postérieures est grises avec des ocelles discrets ou absents[3].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme en anglais Vidler's Alpine
 </t>
         </is>
       </c>
@@ -573,15 +590,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération en juillet et début août[3].
-Plantes hôtes
-Les plantes hôtes des chenilles sont des graminées.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia vidleri est un papillon de taille moyenne, d'une envergure de 35 à 45 mm, marron foncé avec une bande orange contenant trois ocelles noirs sur l'aile antérieure et deux ou trois ocelles noir sur l'aile postérieure.
+Le revers   des ailes antérieures est identique, alors que la bande des ailes postérieures est grises avec des ocelles discrets ou absents.
 </t>
         </is>
       </c>
@@ -607,16 +624,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération en juillet et début août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erebia_vidleri</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_vidleri</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles sont des graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erebia_vidleri</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_vidleri</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique du Nord, dans les zones montagneuses de l'État de Washington à l'extrême nord-ouest des USA et au Canada en Colombie-Britannique[3].
-Biotope
-C'est un papillon des prairies alpines fleuries[3].
-Protection
-Statut non connu.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Nord, dans les zones montagneuses de l'État de Washington à l'extrême nord-ouest des USA et au Canada en Colombie-Britannique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_vidleri</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_vidleri</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon des prairies alpines fleuries.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_vidleri</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_vidleri</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Statut non connu.
 </t>
         </is>
       </c>
